--- a/Diplom/Quiz-App/dist/quiz/quiz_results.xlsx
+++ b/Diplom/Quiz-App/dist/quiz/quiz_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,7 +445,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -453,191 +453,29 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Работа с функциями и модулями</t>
+          <t>Работа с данными в Python</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sav123</t>
+          <t>valenok123</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Работа с функциями и модулями</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>26</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>sav123</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Работа с функциями и модулями</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>27</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>sav123</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Работа с функциями и модулями</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>28</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>sav123</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Работа с функциями и модулями</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>29</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>sav123</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Основы языка Python</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>30</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>sav123</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Работа с функциями и модулями</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>31</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>sav123</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Работа с функциями и модулями</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>32</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>sav123</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Работа с функциями и модулями</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>33</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>sav123</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
           <t>Работа с данными в Python</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>34</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>sav123</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Работа с функциями и модулями</t>
         </is>
       </c>
     </row>
